--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA781CEA-62C2-4B96-AA00-AA76BB0BF91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D972D71-5277-4DFB-A66E-989D3779D605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>Designator</t>
   </si>
@@ -116,13 +116,7 @@
     <t>L1</t>
   </si>
   <si>
-    <t>1KΩ</t>
-  </si>
-  <si>
     <t>L0603</t>
-  </si>
-  <si>
-    <t>BLM18AG102SN1D</t>
   </si>
   <si>
     <t>R1</t>
@@ -202,6 +196,14 @@
   </si>
   <si>
     <t>390R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6V 1.5A FUSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100R@100MHz FERRITE BEAD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,9 +254,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -597,12 +600,13 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="20" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="29.25" customWidth="1"/>
     <col min="3" max="3" width="9.875" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="5" max="6" width="20" customWidth="1"/>
@@ -773,7 +777,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -792,34 +796,32 @@
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
+      <c r="B10" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
@@ -830,16 +832,16 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
@@ -850,19 +852,19 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -870,19 +872,19 @@
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -890,19 +892,19 @@
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -910,19 +912,19 @@
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -930,19 +932,19 @@
     </row>
     <row r="17" spans="1:6" ht="15">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -950,19 +952,19 @@
     </row>
     <row r="18" spans="1:6" ht="15">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -970,19 +972,19 @@
     </row>
     <row r="19" spans="1:6" ht="15">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
